--- a/data/type6.xlsx
+++ b/data/type6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32000" windowHeight="13660"/>
+    <workbookView windowWidth="30240" windowHeight="11500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1231,7 +1231,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C15"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
